--- a/backend/Resultados/total_2023_6.xlsx
+++ b/backend/Resultados/total_2023_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="PD" state="visible" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="179">
   <si>
     <t>Asociación Mexicana de Garantías</t>
   </si>
@@ -107,10 +107,31 @@
     <t>NaN</t>
   </si>
   <si>
+    <t>1590557</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>34249609.5</t>
+  </si>
+  <si>
+    <t>68208</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>-68208</t>
+  </si>
+  <si>
+    <t>-1246470026</t>
   </si>
   <si>
     <t>2</t>
@@ -2750,7 +2771,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>23</v>
@@ -2765,7 +2786,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="45" t="s">
         <v>23</v>
@@ -2774,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="45" t="s">
         <v>23</v>
@@ -2783,25 +2804,25 @@
         <v>23</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U15" s="46" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V15" s="49"/>
       <c r="W15" s="3"/>
@@ -2813,67 +2834,67 @@
     </row>
     <row r="16" ht="12.9" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="O16" s="46" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U16" s="46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="V16" s="49"/>
       <c r="W16" s="3"/>
@@ -2885,10 +2906,10 @@
     </row>
     <row r="17" ht="12.9" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -2936,13 +2957,13 @@
         <v>23</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S17" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U17" s="46" t="s">
         <v>23</v>
@@ -2957,10 +2978,10 @@
     </row>
     <row r="18" ht="12.9" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -3008,13 +3029,13 @@
         <v>23</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S18" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U18" s="46" t="s">
         <v>23</v>
@@ -3029,10 +3050,10 @@
     </row>
     <row r="19" ht="12.9" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>23</v>
@@ -3080,13 +3101,13 @@
         <v>23</v>
       </c>
       <c r="R19" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S19" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U19" s="46" t="s">
         <v>23</v>
@@ -3101,10 +3122,10 @@
     </row>
     <row r="20" ht="12.9" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>23</v>
@@ -3152,13 +3173,13 @@
         <v>23</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S20" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U20" s="46" t="s">
         <v>23</v>
@@ -3173,10 +3194,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -3224,13 +3245,13 @@
         <v>23</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S21" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U21" s="46" t="s">
         <v>23</v>
@@ -3238,10 +3259,10 @@
     </row>
     <row r="22" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -3289,13 +3310,13 @@
         <v>23</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S22" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U22" s="46" t="s">
         <v>23</v>
@@ -3303,10 +3324,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -3354,13 +3375,13 @@
         <v>23</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S23" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U23" s="46" t="s">
         <v>23</v>
@@ -3368,10 +3389,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -3419,13 +3440,13 @@
         <v>23</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S24" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>23</v>
@@ -3433,10 +3454,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -3484,13 +3505,13 @@
         <v>23</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S25" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U25" s="46" t="s">
         <v>23</v>
@@ -3498,10 +3519,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -3549,13 +3570,13 @@
         <v>23</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U26" s="46" t="s">
         <v>23</v>
@@ -3563,10 +3584,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -3614,13 +3635,13 @@
         <v>23</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S27" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>23</v>
@@ -3628,10 +3649,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -3679,13 +3700,13 @@
         <v>23</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S28" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U28" s="46" t="s">
         <v>23</v>
@@ -3693,10 +3714,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -3744,13 +3765,13 @@
         <v>23</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S29" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U29" s="46" t="s">
         <v>23</v>
@@ -3758,10 +3779,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>23</v>
@@ -3809,13 +3830,13 @@
         <v>23</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S30" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U30" s="46" t="s">
         <v>23</v>
@@ -3823,10 +3844,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>23</v>
@@ -3874,13 +3895,13 @@
         <v>23</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S31" s="45" t="s">
         <v>23</v>
       </c>
       <c r="T31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U31" s="46" t="s">
         <v>23</v>
@@ -3888,7 +3909,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -3933,7 +3954,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" s="60">
         <v>2023</v>
@@ -4046,7 +4067,7 @@
       <c r="K6" s="114"/>
       <c r="L6" s="114"/>
       <c r="M6" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
@@ -4068,7 +4089,7 @@
     </row>
     <row r="8" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
@@ -4100,25 +4121,25 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D10" s="118"/>
       <c r="E10" s="117" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F10" s="118"/>
       <c r="G10" s="117" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="119" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J10" s="120"/>
       <c r="K10" s="120"/>
@@ -4135,7 +4156,7 @@
       <c r="G11" s="122"/>
       <c r="H11" s="123"/>
       <c r="I11" s="69" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>15</v>
@@ -4205,14 +4226,14 @@
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="124" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M13" s="125"/>
     </row>
@@ -4239,698 +4260,698 @@
         <v>22</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M28" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="128" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="129"/>
       <c r="D32" s="130"/>
@@ -4942,7 +4963,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B34" s="132">
         <v>2023</v>
@@ -4957,7 +4978,7 @@
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="133" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -4974,7 +4995,7 @@
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="133" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -4991,7 +5012,7 @@
     </row>
     <row r="38" ht="19.5" customHeight="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="133" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B38" s="133"/>
       <c r="C38" s="133"/>
@@ -5023,7 +5044,7 @@
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="133" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B40" s="133"/>
       <c r="C40" s="133"/>
@@ -5055,7 +5076,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="133" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B42" s="135"/>
       <c r="C42" s="133"/>
@@ -5072,7 +5093,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B43" s="135"/>
       <c r="C43" s="133"/>
@@ -5089,7 +5110,7 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="133" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B44" s="133"/>
       <c r="C44" s="133"/>
@@ -5123,7 +5144,7 @@
     </row>
     <row r="46" ht="19.5" customHeight="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="133" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B46" s="133"/>
       <c r="C46" s="133"/>
@@ -5155,10 +5176,10 @@
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B48" s="140" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
@@ -5170,14 +5191,14 @@
       <c r="J48" s="140"/>
       <c r="K48" s="140"/>
       <c r="L48" s="141" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M48" s="142"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="143"/>
       <c r="B49" s="144" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C49" s="144"/>
       <c r="D49" s="144"/>
@@ -5255,7 +5276,7 @@
   <dimension ref="A6:XFD1048571"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="12" customHeight="1"/>
@@ -5278,14 +5299,14 @@
       <c r="D6" s="145"/>
       <c r="E6" s="145"/>
       <c r="F6" s="146" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="147"/>
       <c r="B8" s="148"/>
       <c r="C8" s="148" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D8" s="148"/>
       <c r="E8" s="148"/>
@@ -5295,7 +5316,7 @@
       <c r="A9" s="150"/>
       <c r="B9" s="151"/>
       <c r="C9" s="151" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D9" s="151"/>
       <c r="E9" s="151"/>
@@ -5311,22 +5332,22 @@
     </row>
     <row r="11" ht="26.4" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="156" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B11" s="157" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E11" s="157" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F11" s="157" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" ht="1.2" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5361,430 +5382,424 @@
         <v>22</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F18" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F19" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F20" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D24" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E24" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F24" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D26" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E27" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D28" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D29" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E29" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F29" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E30" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D31" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E31" s="158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="160">
-        <f>SUM(C12:C32)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="160">
+        <f>SUM(C12:C31)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="160">
-        <f>SUM(D12:D32)</f>
+      <c r="D32" s="160">
+        <f>SUM(D12:D31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="160">
-        <f>SUM(E12:E32)</f>
+      <c r="E32" s="160">
+        <f>SUM(E12:E31)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="161"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="60">
+      <c r="F32" s="161"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="60">
         <v>2023</v>
       </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="163" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="163"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+    </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="164" t="s">
-        <v>169</v>
-      </c>
+      <c r="A39" s="164"/>
       <c r="B39" s="164"/>
-      <c r="C39" s="165" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="164"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="166" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
+      <c r="C39" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
     </row>
     <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048568" s="61" t="str">
-        <f>"Primer Trimestre"&amp;" "&amp;$B$35</f>
+        <f>"Primer Trimestre"&amp;" "&amp;$B$34</f>
         <v>Primer Trimestre 2023</v>
       </c>
     </row>
     <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048569" s="61" t="str">
-        <f>"Segundo Trimestre"&amp;" "&amp;$B$35</f>
+        <f>"Segundo Trimestre"&amp;" "&amp;$B$34</f>
         <v>Segundo Trimestre 2023</v>
       </c>
     </row>
     <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048570" s="61" t="str">
-        <f>"Tercer Trimestre"&amp;" "&amp;$B$35</f>
+        <f>"Tercer Trimestre"&amp;" "&amp;$B$34</f>
         <v>Tercer Trimestre 2023</v>
       </c>
     </row>
     <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048571" s="61" t="str">
-        <f>"Cuarto Trimestre"&amp;" "&amp;$B$35</f>
+        <f>"Cuarto Trimestre"&amp;" "&amp;$B$34</f>
         <v>Cuarto Trimestre 2023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
@@ -5908,7 +5923,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="65" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5919,27 +5934,27 @@
         <v>5</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="20"/>
       <c r="F10" s="66" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G10" s="67"/>
       <c r="H10" s="20"/>
       <c r="I10" s="66" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="20"/>
       <c r="L10" s="66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="20"/>
       <c r="O10" s="66" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P10" s="67"/>
       <c r="Q10" s="20"/>
@@ -6039,38 +6054,38 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="36" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="68"/>
@@ -6108,7 +6123,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>23</v>
@@ -6157,37 +6172,37 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>23</v>
@@ -6196,16 +6211,16 @@
         <v>23</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R16" s="76"/>
       <c r="S16" s="77"/>
@@ -6218,10 +6233,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -6278,10 +6293,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -6339,10 +6354,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>23</v>
@@ -6399,10 +6414,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>23</v>
@@ -6460,10 +6475,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -6520,10 +6535,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -6581,10 +6596,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -6642,10 +6657,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -6703,10 +6718,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -6764,10 +6779,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -6825,10 +6840,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -6885,10 +6900,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -6946,10 +6961,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -7007,10 +7022,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>23</v>
@@ -7068,10 +7083,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>23</v>
@@ -7129,7 +7144,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="57">
         <f>SUM(C15:C31)</f>
@@ -7164,7 +7179,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" s="60">
         <v>2023</v>
@@ -7277,7 +7292,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -7340,7 +7355,7 @@
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="65" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7351,21 +7366,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="20"/>
       <c r="H10" s="66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="20"/>
       <c r="M10" s="66" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N10" s="67"/>
       <c r="O10" s="67"/>
@@ -7462,36 +7477,36 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="86" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="73" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G13" s="74"/>
       <c r="H13" s="86" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J13" s="74"/>
       <c r="K13" s="73" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L13" s="74"/>
       <c r="M13" s="86" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O13" s="74"/>
       <c r="P13" s="73" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="74"/>
     </row>
@@ -7574,55 +7589,55 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O16" s="46" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -7634,10 +7649,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -7694,10 +7709,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -7754,10 +7769,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="89" t="s">
         <v>23</v>
@@ -7814,10 +7829,10 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>23</v>
@@ -7874,10 +7889,10 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>23</v>
@@ -7934,10 +7949,10 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>23</v>
@@ -7994,10 +8009,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>23</v>
@@ -8054,10 +8069,10 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="89" t="s">
         <v>23</v>
@@ -8114,10 +8129,10 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>23</v>
@@ -8174,10 +8189,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="89" t="s">
         <v>23</v>
@@ -8234,10 +8249,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="89" t="s">
         <v>23</v>
@@ -8294,10 +8309,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>23</v>
@@ -8354,10 +8369,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="89" t="s">
         <v>23</v>
@@ -8414,10 +8429,10 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>23</v>
@@ -8474,10 +8489,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="88" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="89" t="s">
         <v>23</v>
@@ -8534,7 +8549,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="57">
         <f>SUM(C14:C31)</f>
@@ -8563,7 +8578,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" s="60">
         <v>2023</v>
@@ -8674,7 +8689,7 @@
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
@@ -8731,26 +8746,26 @@
         <v>5</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="20"/>
       <c r="F10" s="66" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G10" s="67"/>
       <c r="H10" s="20"/>
       <c r="I10" s="66" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="20"/>
       <c r="L10" s="96" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M10" s="97"/>
       <c r="N10" s="66" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O10" s="67"/>
       <c r="P10" s="20"/>
@@ -8837,24 +8852,24 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="100">
@@ -8864,10 +8879,10 @@
         <v>2019</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O13" s="73" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P13" s="74"/>
     </row>
@@ -8939,18 +8954,18 @@
         <v>23</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="104" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>23</v>
@@ -8959,25 +8974,25 @@
         <v>23</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>23</v>
@@ -8992,21 +9007,21 @@
         <v>23</v>
       </c>
       <c r="P16" s="105" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -9051,18 +9066,18 @@
         <v>23</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -9107,18 +9122,18 @@
         <v>23</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="106" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" s="89" t="s">
         <v>23</v>
@@ -9163,18 +9178,18 @@
         <v>23</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="106" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>23</v>
@@ -9219,18 +9234,18 @@
         <v>23</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -9275,18 +9290,18 @@
         <v>23</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="106" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -9331,18 +9346,18 @@
         <v>23</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="106" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -9387,18 +9402,18 @@
         <v>23</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="106" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -9443,18 +9458,18 @@
         <v>23</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="106" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -9499,18 +9514,18 @@
         <v>23</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -9555,18 +9570,18 @@
         <v>23</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -9611,18 +9626,18 @@
         <v>23</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="106" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -9667,18 +9682,18 @@
         <v>23</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -9723,18 +9738,18 @@
         <v>23</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="106" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>23</v>
@@ -9779,18 +9794,18 @@
         <v>23</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="108" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="110" t="s">
         <v>23</v>
@@ -9835,15 +9850,15 @@
         <v>23</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="57">
         <f>SUM(C15:C31)</f>
@@ -9880,7 +9895,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" s="60">
         <v>2023</v>
